--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2302,28 +2302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>675.4010198624144</v>
+        <v>727.4734408853184</v>
       </c>
       <c r="AB2" t="n">
-        <v>924.1134719658145</v>
+        <v>995.361255682434</v>
       </c>
       <c r="AC2" t="n">
-        <v>835.9173792028002</v>
+        <v>900.365374438398</v>
       </c>
       <c r="AD2" t="n">
-        <v>675401.0198624143</v>
+        <v>727473.4408853183</v>
       </c>
       <c r="AE2" t="n">
-        <v>924113.4719658145</v>
+        <v>995361.2556824341</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.046758517900674e-06</v>
+        <v>3.460146826893282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>835917.3792028002</v>
+        <v>900365.3744383981</v>
       </c>
     </row>
     <row r="3">
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.6242547821878</v>
+        <v>271.697115195341</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.2327209857454</v>
+        <v>371.7479794410293</v>
       </c>
       <c r="AC3" t="n">
-        <v>297.8112121759898</v>
+        <v>336.2688740347427</v>
       </c>
       <c r="AD3" t="n">
-        <v>240624.2547821878</v>
+        <v>271697.1151953411</v>
       </c>
       <c r="AE3" t="n">
-        <v>329232.7209857454</v>
+        <v>371747.9794410293</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.807729442318282e-06</v>
+        <v>6.437155547308735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.320833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>297811.2121759898</v>
+        <v>336268.8740347427</v>
       </c>
     </row>
     <row r="4">
@@ -2514,28 +2514,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.5122125900405</v>
+        <v>198.4265218537734</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.8800405516978</v>
+        <v>271.4959211605286</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.6999103657921</v>
+        <v>245.5847314919658</v>
       </c>
       <c r="AD4" t="n">
-        <v>177512.2125900405</v>
+        <v>198426.5218537734</v>
       </c>
       <c r="AE4" t="n">
-        <v>242880.0405516978</v>
+        <v>271495.9211605286</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.464792903802576e-06</v>
+        <v>7.547953929940762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.537500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>219699.910365792</v>
+        <v>245584.7314919658</v>
       </c>
     </row>
     <row r="5">
@@ -2620,28 +2620,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.7322799976061</v>
+        <v>187.4759970607469</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.130461201675</v>
+        <v>256.5129300356589</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.3580101677661</v>
+        <v>232.0316960112889</v>
       </c>
       <c r="AD5" t="n">
-        <v>166732.2799976061</v>
+        <v>187475.9970607469</v>
       </c>
       <c r="AE5" t="n">
-        <v>228130.461201675</v>
+        <v>256512.930035659</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.613740904285582e-06</v>
+        <v>7.799757914991229e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.391666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>206358.0101677661</v>
+        <v>232031.6960112888</v>
       </c>
     </row>
     <row r="6">
@@ -2726,28 +2726,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.4219666072988</v>
+        <v>187.1656836704396</v>
       </c>
       <c r="AB6" t="n">
-        <v>227.7058767309962</v>
+        <v>256.0883455649801</v>
       </c>
       <c r="AC6" t="n">
-        <v>205.9739474430607</v>
+        <v>231.6476332865834</v>
       </c>
       <c r="AD6" t="n">
-        <v>166421.9666072988</v>
+        <v>187165.6836704396</v>
       </c>
       <c r="AE6" t="n">
-        <v>227705.8767309962</v>
+        <v>256088.3455649801</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.628621115891133e-06</v>
+        <v>7.824913651009981e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.377777777777777</v>
       </c>
       <c r="AH6" t="n">
-        <v>205973.9474430607</v>
+        <v>231647.6332865834</v>
       </c>
     </row>
   </sheetData>
@@ -3023,28 +3023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>410.5078332776992</v>
+        <v>450.8701046531398</v>
       </c>
       <c r="AB2" t="n">
-        <v>561.6749278179906</v>
+        <v>616.9003681716088</v>
       </c>
       <c r="AC2" t="n">
-        <v>508.069461022753</v>
+        <v>558.0242628584143</v>
       </c>
       <c r="AD2" t="n">
-        <v>410507.8332776992</v>
+        <v>450870.1046531398</v>
       </c>
       <c r="AE2" t="n">
-        <v>561674.9278179905</v>
+        <v>616900.3681716088</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.711647893019421e-06</v>
+        <v>4.696007436591514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.729166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>508069.461022753</v>
+        <v>558024.2628584143</v>
       </c>
     </row>
     <row r="3">
@@ -3129,28 +3129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.6588220115551</v>
+        <v>208.8451846885634</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.4488821470509</v>
+        <v>285.7511952900456</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.1190239211681</v>
+        <v>258.4795022659692</v>
       </c>
       <c r="AD3" t="n">
-        <v>178658.8220115551</v>
+        <v>208845.1846885635</v>
       </c>
       <c r="AE3" t="n">
-        <v>244448.8821470509</v>
+        <v>285751.1952900456</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.365680668369647e-06</v>
+        <v>7.560446523025341e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.801388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>221119.0239211681</v>
+        <v>258479.5022659692</v>
       </c>
     </row>
     <row r="4">
@@ -3235,28 +3235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.9740263396081</v>
+        <v>178.0699106813075</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.1470321599266</v>
+        <v>243.6431076840723</v>
       </c>
       <c r="AC4" t="n">
-        <v>195.5182627749101</v>
+        <v>220.3901514420245</v>
       </c>
       <c r="AD4" t="n">
-        <v>157974.0263396081</v>
+        <v>178069.9106813075</v>
       </c>
       <c r="AE4" t="n">
-        <v>216147.0321599266</v>
+        <v>243643.1076840723</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.684413991502829e-06</v>
+        <v>8.11242602581259e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.475</v>
       </c>
       <c r="AH4" t="n">
-        <v>195518.2627749101</v>
+        <v>220390.1514420244</v>
       </c>
     </row>
     <row r="5">
@@ -3341,28 +3341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.9618258403672</v>
+        <v>178.0577101820666</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.1303388986172</v>
+        <v>243.6264144227629</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.5031626950309</v>
+        <v>220.3750513621453</v>
       </c>
       <c r="AD5" t="n">
-        <v>157961.8258403672</v>
+        <v>178057.7101820666</v>
       </c>
       <c r="AE5" t="n">
-        <v>216130.3388986172</v>
+        <v>243626.4144227629</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.697845462032589e-06</v>
+        <v>8.135686525693302e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.461111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>195503.1626950309</v>
+        <v>220375.0513621453</v>
       </c>
     </row>
   </sheetData>
@@ -3638,28 +3638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.5972864917254</v>
+        <v>170.828107225707</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.7903394950362</v>
+        <v>233.7345527103044</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.8636825327715</v>
+        <v>211.4272550482055</v>
       </c>
       <c r="AD2" t="n">
-        <v>152597.2864917254</v>
+        <v>170828.107225707</v>
       </c>
       <c r="AE2" t="n">
-        <v>208790.3394950363</v>
+        <v>233734.5527103044</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.584679124100131e-06</v>
+        <v>8.675199478612369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.101388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>188863.6825327715</v>
+        <v>211427.2550482055</v>
       </c>
     </row>
     <row r="3">
@@ -3744,28 +3744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.5108994599896</v>
+        <v>170.7417201939712</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.6721409470885</v>
+        <v>233.6163541623566</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.7567646883472</v>
+        <v>211.3203372037811</v>
       </c>
       <c r="AD3" t="n">
-        <v>152510.8994599897</v>
+        <v>170741.7201939712</v>
       </c>
       <c r="AE3" t="n">
-        <v>208672.1409470885</v>
+        <v>233616.3541623566</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.605560674564352e-06</v>
+        <v>8.714711865585664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.077777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>188756.7646883472</v>
+        <v>211320.3372037811</v>
       </c>
     </row>
   </sheetData>
@@ -4041,28 +4041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.1011180958584</v>
+        <v>226.5910104327753</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.0506893831487</v>
+        <v>310.0318169638424</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.1819920105322</v>
+        <v>280.4428154852931</v>
       </c>
       <c r="AD2" t="n">
-        <v>198101.1180958584</v>
+        <v>226591.0104327753</v>
       </c>
       <c r="AE2" t="n">
-        <v>271050.6893831487</v>
+        <v>310031.8169638424</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.023214083423189e-06</v>
+        <v>7.329422319363292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.561111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>245181.9920105322</v>
+        <v>280442.8154852931</v>
       </c>
     </row>
     <row r="3">
@@ -4147,28 +4147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.1836928531509</v>
+        <v>174.5882443354963</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.0149777309611</v>
+        <v>238.8793381894571</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.9258289791592</v>
+        <v>216.0810294219813</v>
       </c>
       <c r="AD3" t="n">
-        <v>146183.6928531509</v>
+        <v>174588.2443354963</v>
       </c>
       <c r="AE3" t="n">
-        <v>200014.9777309611</v>
+        <v>238879.3381894571</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.716921681357768e-06</v>
+        <v>8.593206907005078e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.743055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>180925.8289791592</v>
+        <v>216081.0294219813</v>
       </c>
     </row>
     <row r="4">
@@ -4253,28 +4253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.3421061710492</v>
+        <v>174.7466576533946</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.2317258212118</v>
+        <v>239.0960862797079</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.1218909358844</v>
+        <v>216.2770913787064</v>
       </c>
       <c r="AD4" t="n">
-        <v>146342.1061710492</v>
+        <v>174746.6576533946</v>
       </c>
       <c r="AE4" t="n">
-        <v>200231.7258212118</v>
+        <v>239096.0862797079</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.728359962698538e-06</v>
+        <v>8.614044971501726e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.731944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>181121.8909358844</v>
+        <v>216277.0913787064</v>
       </c>
     </row>
   </sheetData>
@@ -4550,28 +4550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.8402163549022</v>
+        <v>179.2481662561038</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.1227268511437</v>
+        <v>245.2552489424751</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.1643473061207</v>
+        <v>221.8484322013803</v>
       </c>
       <c r="AD2" t="n">
-        <v>152840.2163549022</v>
+        <v>179248.1662561038</v>
       </c>
       <c r="AE2" t="n">
-        <v>209122.7268511437</v>
+        <v>245255.2489424751</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.375751913370169e-06</v>
+        <v>8.575063880892638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.551388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>189164.3473061207</v>
+        <v>221848.4322013803</v>
       </c>
     </row>
     <row r="3">
@@ -4656,28 +4656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.5208535432779</v>
+        <v>179.9288034444795</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.0540046798724</v>
+        <v>246.1865267712038</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.0067452859325</v>
+        <v>222.690830181192</v>
       </c>
       <c r="AD3" t="n">
-        <v>153520.8535432779</v>
+        <v>179928.8034444795</v>
       </c>
       <c r="AE3" t="n">
-        <v>210054.0046798724</v>
+        <v>246186.5267712038</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.38397207964094e-06</v>
+        <v>8.591172758241931e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.541666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>190006.7452859325</v>
+        <v>222690.830181192</v>
       </c>
     </row>
   </sheetData>
@@ -4953,28 +4953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>467.6273451712548</v>
+        <v>508.2449197852986</v>
       </c>
       <c r="AB2" t="n">
-        <v>639.8283639257698</v>
+        <v>695.4031214336289</v>
       </c>
       <c r="AC2" t="n">
-        <v>578.7640428774423</v>
+        <v>629.0348235284137</v>
       </c>
       <c r="AD2" t="n">
-        <v>467627.3451712548</v>
+        <v>508244.9197852986</v>
       </c>
       <c r="AE2" t="n">
-        <v>639828.3639257698</v>
+        <v>695403.121433629</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.538178296759255e-06</v>
+        <v>4.36688806032389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.183333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>578764.0428774423</v>
+        <v>629034.8235284137</v>
       </c>
     </row>
     <row r="3">
@@ -5059,28 +5059,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.8682590627688</v>
+        <v>221.3100376782451</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.1543725628604</v>
+        <v>302.8061570610226</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.2301657780011</v>
+        <v>273.9067624223188</v>
       </c>
       <c r="AD3" t="n">
-        <v>190868.2590627688</v>
+        <v>221310.0376782451</v>
       </c>
       <c r="AE3" t="n">
-        <v>261154.3725628604</v>
+        <v>302806.1570610226</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.218930621252833e-06</v>
+        <v>7.258590848722916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.923611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>236230.1657780011</v>
+        <v>273906.7624223188</v>
       </c>
     </row>
     <row r="4">
@@ -5165,28 +5165,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.2655024371268</v>
+        <v>180.5316640711381</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.2823308493408</v>
+        <v>247.0113872769314</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.3543329578268</v>
+        <v>223.4369671579522</v>
       </c>
       <c r="AD4" t="n">
-        <v>160265.5024371268</v>
+        <v>180531.6640711381</v>
       </c>
       <c r="AE4" t="n">
-        <v>219282.3308493407</v>
+        <v>247011.3872769314</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.662225681743932e-06</v>
+        <v>8.02127166958203e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.455555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>198354.3329578268</v>
+        <v>223436.9671579522</v>
       </c>
     </row>
     <row r="5">
@@ -5271,28 +5271,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.2504182182094</v>
+        <v>180.5165798522207</v>
       </c>
       <c r="AB5" t="n">
-        <v>219.2616919555493</v>
+        <v>246.9907483831399</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.3356638110919</v>
+        <v>223.4182980112173</v>
       </c>
       <c r="AD5" t="n">
-        <v>160250.4182182094</v>
+        <v>180516.5798522207</v>
       </c>
       <c r="AE5" t="n">
-        <v>219261.6919555493</v>
+        <v>246990.7483831399</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.67583561781164e-06</v>
+        <v>8.04468730881893e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.443055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>198335.6638110919</v>
+        <v>223418.2980112173</v>
       </c>
     </row>
   </sheetData>
@@ -5568,28 +5568,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.3829427306362</v>
+        <v>189.6821629531776</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.6017972555918</v>
+        <v>259.5315035388511</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.3113801140754</v>
+        <v>234.7621810959319</v>
       </c>
       <c r="AD2" t="n">
-        <v>155382.9427306362</v>
+        <v>189682.1629531776</v>
       </c>
       <c r="AE2" t="n">
-        <v>212601.7972555918</v>
+        <v>259531.5035388511</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.17307179273713e-06</v>
+        <v>8.365591671632838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.956944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>192311.3801140754</v>
+        <v>234762.1810959319</v>
       </c>
     </row>
   </sheetData>
@@ -5865,28 +5865,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.1275981384794</v>
+        <v>318.6556942259959</v>
       </c>
       <c r="AB2" t="n">
-        <v>395.5971351824668</v>
+        <v>435.9987789370671</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.8418998247178</v>
+        <v>394.3876674034422</v>
       </c>
       <c r="AD2" t="n">
-        <v>289127.5981384794</v>
+        <v>318655.6942259959</v>
       </c>
       <c r="AE2" t="n">
-        <v>395597.1351824668</v>
+        <v>435998.7789370671</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.299023388104575e-06</v>
+        <v>5.842815560533776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.545833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>357841.8998247178</v>
+        <v>394387.6674034422</v>
       </c>
     </row>
     <row r="3">
@@ -5971,28 +5971,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.8889864734661</v>
+        <v>171.6028308166674</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.8212121620629</v>
+        <v>234.7945637058485</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.9870473522781</v>
+        <v>212.38610008207</v>
       </c>
       <c r="AD3" t="n">
-        <v>151888.9864734661</v>
+        <v>171602.8308166674</v>
       </c>
       <c r="AE3" t="n">
-        <v>207821.2121620629</v>
+        <v>234794.5637058485</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.712424085558059e-06</v>
+        <v>8.346053221148001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>187987.0473522781</v>
+        <v>212386.10008207</v>
       </c>
     </row>
     <row r="4">
@@ -6077,28 +6077,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.7670942964744</v>
+        <v>171.4809386396757</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.6544339079996</v>
+        <v>234.6277854517851</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.8361861807078</v>
+        <v>212.2352389104997</v>
       </c>
       <c r="AD4" t="n">
-        <v>151767.0942964744</v>
+        <v>171480.9386396756</v>
       </c>
       <c r="AE4" t="n">
-        <v>207654.4339079996</v>
+        <v>234627.7854517851</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.726262662243798e-06</v>
+        <v>8.370562368760176e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.569444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>187836.1861807078</v>
+        <v>212235.2389104997</v>
       </c>
     </row>
   </sheetData>
@@ -6374,28 +6374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.2849323403404</v>
+        <v>408.1231069150508</v>
       </c>
       <c r="AB2" t="n">
-        <v>503.9036920125727</v>
+        <v>558.4120400019128</v>
       </c>
       <c r="AC2" t="n">
-        <v>455.8118308801656</v>
+        <v>505.11797864035</v>
       </c>
       <c r="AD2" t="n">
-        <v>368284.9323403404</v>
+        <v>408123.1069150508</v>
       </c>
       <c r="AE2" t="n">
-        <v>503903.6920125727</v>
+        <v>558412.0400019129</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.899198712231854e-06</v>
+        <v>5.055949398407524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.298611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>455811.8308801656</v>
+        <v>505117.97864035</v>
       </c>
     </row>
     <row r="3">
@@ -6480,28 +6480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.8799777054365</v>
+        <v>196.8012119323413</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.3325477214914</v>
+        <v>269.2721004224131</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.5408098337615</v>
+        <v>243.5731490839433</v>
       </c>
       <c r="AD3" t="n">
-        <v>166879.9777054365</v>
+        <v>196801.2119323413</v>
       </c>
       <c r="AE3" t="n">
-        <v>228332.5477214914</v>
+        <v>269272.1004224131</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.517143553214632e-06</v>
+        <v>7.877503923425282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.684722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>206540.8098337615</v>
+        <v>243573.1490839433</v>
       </c>
     </row>
     <row r="4">
@@ -6586,28 +6586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.319690590771</v>
+        <v>175.2388226324014</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.5152528873408</v>
+        <v>239.7694881167712</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.2330954188645</v>
+        <v>216.886224689566</v>
       </c>
       <c r="AD4" t="n">
-        <v>155319.690590771</v>
+        <v>175238.8226324014</v>
       </c>
       <c r="AE4" t="n">
-        <v>212515.2528873408</v>
+        <v>239769.4881167712</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.712302436576115e-06</v>
+        <v>8.21784397488929e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.490277777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>192233.0954188645</v>
+        <v>216886.224689566</v>
       </c>
     </row>
   </sheetData>
@@ -6883,28 +6883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>598.6694816870233</v>
+        <v>650.1860161056779</v>
       </c>
       <c r="AB2" t="n">
-        <v>819.1259962776927</v>
+        <v>889.6131914183919</v>
       </c>
       <c r="AC2" t="n">
-        <v>740.9497608435053</v>
+        <v>804.7097570093758</v>
       </c>
       <c r="AD2" t="n">
-        <v>598669.4816870233</v>
+        <v>650186.0161056779</v>
       </c>
       <c r="AE2" t="n">
-        <v>819125.9962776927</v>
+        <v>889613.1914183919</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.203847834550874e-06</v>
+        <v>3.746395255682666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.266666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>740949.7608435053</v>
+        <v>804709.7570093758</v>
       </c>
     </row>
     <row r="3">
@@ -6989,28 +6989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.8717274832372</v>
+        <v>247.5466676394867</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.4159064166463</v>
+        <v>338.7042716523986</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.7902479797945</v>
+        <v>306.3788113404255</v>
       </c>
       <c r="AD3" t="n">
-        <v>226871.7274832372</v>
+        <v>247546.6676394867</v>
       </c>
       <c r="AE3" t="n">
-        <v>310415.9064166463</v>
+        <v>338704.2716523986</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.939633504734268e-06</v>
+        <v>6.697115853405905e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.184722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>280790.2479797945</v>
+        <v>306378.8113404255</v>
       </c>
     </row>
     <row r="4">
@@ -7095,28 +7095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.6626973675477</v>
+        <v>189.2522966692256</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.7717434112317</v>
+        <v>258.9433415247863</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.7472121103064</v>
+        <v>234.2301524389986</v>
       </c>
       <c r="AD4" t="n">
-        <v>168662.6973675477</v>
+        <v>189252.2966692256</v>
       </c>
       <c r="AE4" t="n">
-        <v>230771.7434112316</v>
+        <v>258943.3415247863</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.571657124731577e-06</v>
+        <v>7.771514119164503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.468055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>208747.2121103063</v>
+        <v>234230.1524389986</v>
       </c>
     </row>
     <row r="5">
@@ -7201,28 +7201,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>164.0974472575904</v>
+        <v>184.6870465592683</v>
       </c>
       <c r="AB5" t="n">
-        <v>224.5253668061707</v>
+        <v>252.6969649197253</v>
       </c>
       <c r="AC5" t="n">
-        <v>203.0969809215858</v>
+        <v>228.5799212502781</v>
       </c>
       <c r="AD5" t="n">
-        <v>164097.4472575904</v>
+        <v>184687.0465592683</v>
       </c>
       <c r="AE5" t="n">
-        <v>224525.3668061707</v>
+        <v>252696.9649197253</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.636359403186396e-06</v>
+        <v>7.881503704304982e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.405555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>203096.9809215858</v>
+        <v>228579.9212502781</v>
       </c>
     </row>
     <row r="6">
@@ -7307,28 +7307,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>164.6414877727685</v>
+        <v>185.2310870744464</v>
       </c>
       <c r="AB6" t="n">
-        <v>225.2697470404107</v>
+        <v>253.4413451539654</v>
       </c>
       <c r="AC6" t="n">
-        <v>203.7703185510144</v>
+        <v>229.2532588797067</v>
       </c>
       <c r="AD6" t="n">
-        <v>164641.4877727685</v>
+        <v>185231.0870744464</v>
       </c>
       <c r="AE6" t="n">
-        <v>225269.7470404107</v>
+        <v>253441.3451539653</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.636359403186396e-06</v>
+        <v>7.881503704304982e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.405555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>203770.3185510144</v>
+        <v>229253.2588797067</v>
       </c>
     </row>
   </sheetData>
@@ -7604,28 +7604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.7577114862724</v>
+        <v>251.582150569734</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.7869282320255</v>
+        <v>344.2257974305022</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.6984915727916</v>
+        <v>311.3733704477787</v>
       </c>
       <c r="AD2" t="n">
-        <v>222757.7114862724</v>
+        <v>251582.150569734</v>
       </c>
       <c r="AE2" t="n">
-        <v>304786.9282320255</v>
+        <v>344225.7974305021</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.762868037181455e-06</v>
+        <v>6.785341515913995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.872222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>275698.4915727916</v>
+        <v>311373.3704477787</v>
       </c>
     </row>
     <row r="3">
@@ -7710,28 +7710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.9001479339937</v>
+        <v>176.6392461628836</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.3635072972228</v>
+        <v>241.6856093735017</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.0502181797997</v>
+        <v>218.619474022848</v>
       </c>
       <c r="AD3" t="n">
-        <v>147900.1479339937</v>
+        <v>176639.2461628836</v>
       </c>
       <c r="AE3" t="n">
-        <v>202363.5072972228</v>
+        <v>241685.6093735017</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.723431061258808e-06</v>
+        <v>8.517463955904214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.677777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>183050.2181797997</v>
+        <v>218619.4740228479</v>
       </c>
     </row>
     <row r="4">
@@ -7816,28 +7816,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.0347446878026</v>
+        <v>176.7738429166926</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.5476685137738</v>
+        <v>241.8697705900528</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.216803308315</v>
+        <v>218.7860591513633</v>
       </c>
       <c r="AD4" t="n">
-        <v>148034.7446878026</v>
+        <v>176773.8429166926</v>
       </c>
       <c r="AE4" t="n">
-        <v>202547.6685137738</v>
+        <v>241869.7705900528</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.735521619362464e-06</v>
+        <v>8.539266093274082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.665277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>183216.803308315</v>
+        <v>218786.0591513633</v>
       </c>
     </row>
   </sheetData>
@@ -8113,28 +8113,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.7862140402527</v>
+        <v>176.2897445477559</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.8900590862548</v>
+        <v>241.2074058447612</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.2858148507254</v>
+        <v>218.1869095677274</v>
       </c>
       <c r="AD2" t="n">
-        <v>157786.2140402527</v>
+        <v>176289.7445477559</v>
       </c>
       <c r="AE2" t="n">
-        <v>215890.0590862548</v>
+        <v>241207.4058447612</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.555841727659424e-06</v>
+        <v>8.499744422089262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.051388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>195285.8148507254</v>
+        <v>218186.9095677274</v>
       </c>
     </row>
     <row r="3">
@@ -8219,28 +8219,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.3997415684556</v>
+        <v>171.0695622123123</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.2058527639803</v>
+        <v>234.0649220752198</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.4802415528855</v>
+        <v>211.7260944246098</v>
       </c>
       <c r="AD3" t="n">
-        <v>143399.7415684556</v>
+        <v>171069.5622123124</v>
       </c>
       <c r="AE3" t="n">
-        <v>196205.8527639803</v>
+        <v>234064.9220752198</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.670682347376722e-06</v>
+        <v>8.714000310511633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.927777777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>177480.2415528855</v>
+        <v>211726.0944246099</v>
       </c>
     </row>
   </sheetData>
@@ -14217,28 +14217,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.0604171241962</v>
+        <v>178.7902928630818</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.0557711413783</v>
+        <v>244.6287663661942</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.1992203518133</v>
+        <v>221.2817402429056</v>
       </c>
       <c r="AD2" t="n">
-        <v>152060.4171241962</v>
+        <v>178790.2928630818</v>
       </c>
       <c r="AE2" t="n">
-        <v>208055.7711413783</v>
+        <v>244628.7663661942</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.504527472401243e-06</v>
+        <v>8.662373373557505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.286111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>188199.2203518133</v>
+        <v>221281.7402429056</v>
       </c>
     </row>
     <row r="3">
@@ -14323,28 +14323,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.4817125500216</v>
+        <v>170.4154473515578</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.6322061292346</v>
+        <v>233.1699332652249</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.7206411934604</v>
+        <v>210.9165220905159</v>
       </c>
       <c r="AD3" t="n">
-        <v>152481.7125500216</v>
+        <v>170415.4473515578</v>
       </c>
       <c r="AE3" t="n">
-        <v>208632.2061292346</v>
+        <v>233169.9332652249</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.51447010639292e-06</v>
+        <v>8.681493427432238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.273611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>188720.6411934604</v>
+        <v>210916.5220905158</v>
       </c>
     </row>
   </sheetData>
@@ -14620,28 +14620,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.844929558279</v>
+        <v>204.3678557041175</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.7575697678783</v>
+        <v>279.6251162477156</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.4480753901092</v>
+        <v>252.9380876094312</v>
       </c>
       <c r="AD2" t="n">
-        <v>170844.929558279</v>
+        <v>204367.8557041175</v>
       </c>
       <c r="AE2" t="n">
-        <v>233757.5697678783</v>
+        <v>279625.1162477156</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.826093307687375e-06</v>
+        <v>7.891697459906511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.679166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>211448.0753901092</v>
+        <v>252938.0876094312</v>
       </c>
     </row>
   </sheetData>
@@ -14917,28 +14917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.9496568178973</v>
+        <v>361.5052198440753</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.5057238746801</v>
+        <v>494.6273902753767</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.4644758417463</v>
+        <v>447.4208463613963</v>
       </c>
       <c r="AD2" t="n">
-        <v>321949.6568178973</v>
+        <v>361505.2198440753</v>
       </c>
       <c r="AE2" t="n">
-        <v>440505.7238746801</v>
+        <v>494627.3902753767</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.091858452683802e-06</v>
+        <v>5.432273334426617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.911111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>398464.4758417463</v>
+        <v>447420.8463613964</v>
       </c>
     </row>
     <row r="3">
@@ -15023,28 +15023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.9547724251812</v>
+        <v>176.8605652201273</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.7524439878993</v>
+        <v>241.9884278715301</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.2567721407038</v>
+        <v>218.893391948433</v>
       </c>
       <c r="AD3" t="n">
-        <v>156954.7724251812</v>
+        <v>176860.5652201273</v>
       </c>
       <c r="AE3" t="n">
-        <v>214752.4439878993</v>
+        <v>241988.4278715301</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.651328215695165e-06</v>
+        <v>8.172200190424117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.594444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>194256.7721407038</v>
+        <v>218893.391948433</v>
       </c>
     </row>
     <row r="4">
@@ -15129,28 +15129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.8764805636548</v>
+        <v>172.7822733586009</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.1723451414229</v>
+        <v>236.4083290250537</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.2092300964154</v>
+        <v>213.8458499041446</v>
       </c>
       <c r="AD4" t="n">
-        <v>152876.4805636547</v>
+        <v>172782.2733586009</v>
       </c>
       <c r="AE4" t="n">
-        <v>209172.3451414229</v>
+        <v>236408.3290250537</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.727955343665531e-06</v>
+        <v>8.306831031498292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.519444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>189209.2300964154</v>
+        <v>213845.8499041446</v>
       </c>
     </row>
     <row r="5">
@@ -15235,28 +15235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.9391837749804</v>
+        <v>172.8449765699265</v>
       </c>
       <c r="AB5" t="n">
-        <v>209.2581384414291</v>
+        <v>236.4941223250599</v>
       </c>
       <c r="AC5" t="n">
-        <v>189.2868354042807</v>
+        <v>213.9234552120099</v>
       </c>
       <c r="AD5" t="n">
-        <v>152939.1837749804</v>
+        <v>172844.9765699265</v>
       </c>
       <c r="AE5" t="n">
-        <v>209258.1384414291</v>
+        <v>236494.1223250599</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.740880401395472e-06</v>
+        <v>8.329539848065022e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.508333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>189286.8354042807</v>
+        <v>213923.4552120099</v>
       </c>
     </row>
   </sheetData>
@@ -15532,28 +15532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>523.1746528492979</v>
+        <v>574.3788458568041</v>
       </c>
       <c r="AB2" t="n">
-        <v>715.8306408651302</v>
+        <v>785.8904767075654</v>
       </c>
       <c r="AC2" t="n">
-        <v>647.512769175576</v>
+        <v>710.8861926148063</v>
       </c>
       <c r="AD2" t="n">
-        <v>523174.6528492979</v>
+        <v>574378.8458568041</v>
       </c>
       <c r="AE2" t="n">
-        <v>715830.6408651302</v>
+        <v>785890.4767075655</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.36778387982609e-06</v>
+        <v>4.048646562994969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.697222222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>647512.7691755759</v>
+        <v>710886.1926148064</v>
       </c>
     </row>
     <row r="3">
@@ -15638,28 +15638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.5696866860652</v>
+        <v>234.0855897394471</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.2154673533422</v>
+        <v>320.2862310087293</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.3268332762096</v>
+        <v>289.7185626458998</v>
       </c>
       <c r="AD3" t="n">
-        <v>213569.6866860652</v>
+        <v>234085.5897394471</v>
       </c>
       <c r="AE3" t="n">
-        <v>292215.4673533422</v>
+        <v>320286.2310087293</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.079456314462722e-06</v>
+        <v>6.975415673347145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.048611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>264326.8332762096</v>
+        <v>289718.5626458998</v>
       </c>
     </row>
     <row r="4">
@@ -15744,28 +15744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.2861085643264</v>
+        <v>182.7166707631366</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.0470132954248</v>
+        <v>250.0010098286143</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.8551579915137</v>
+        <v>226.1412643292651</v>
       </c>
       <c r="AD4" t="n">
-        <v>162286.1085643264</v>
+        <v>182716.6707631366</v>
       </c>
       <c r="AE4" t="n">
-        <v>222047.0132954248</v>
+        <v>250001.0098286143</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.649124150037389e-06</v>
+        <v>7.949484187031575e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.429166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>200855.1579915137</v>
+        <v>226141.264329265</v>
       </c>
     </row>
     <row r="5">
@@ -15850,28 +15850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>162.1381039946853</v>
+        <v>182.5686661934956</v>
       </c>
       <c r="AB5" t="n">
-        <v>221.8445069137413</v>
+        <v>249.7985034469308</v>
       </c>
       <c r="AC5" t="n">
-        <v>200.6719785346785</v>
+        <v>225.9580848724299</v>
       </c>
       <c r="AD5" t="n">
-        <v>162138.1039946853</v>
+        <v>182568.6661934956</v>
       </c>
       <c r="AE5" t="n">
-        <v>221844.5069137413</v>
+        <v>249798.5034469308</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.661134325644247e-06</v>
+        <v>7.970020248876564e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.418055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>200671.9785346785</v>
+        <v>225958.0848724299</v>
       </c>
     </row>
   </sheetData>
@@ -16147,28 +16147,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.4288311843403</v>
+        <v>235.8952937053083</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.3403014729191</v>
+        <v>322.7623478133236</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.775893753492</v>
+        <v>291.958362337916</v>
       </c>
       <c r="AD2" t="n">
-        <v>203428.8311843403</v>
+        <v>235895.2937053083</v>
       </c>
       <c r="AE2" t="n">
-        <v>278340.3014729191</v>
+        <v>322762.3478133236</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.220031117201835e-06</v>
+        <v>6.902009799781587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.218055555555557</v>
       </c>
       <c r="AH2" t="n">
-        <v>251775.893753492</v>
+        <v>291958.362337916</v>
       </c>
     </row>
   </sheetData>
@@ -16444,28 +16444,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.2869203716578</v>
+        <v>194.0434978303674</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.8352975655442</v>
+        <v>265.4988743263344</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.9457533769123</v>
+        <v>240.1600343907172</v>
       </c>
       <c r="AD2" t="n">
-        <v>175286.9203716578</v>
+        <v>194043.4978303674</v>
       </c>
       <c r="AE2" t="n">
-        <v>239835.2975655441</v>
+        <v>265498.8743263345</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.309480261597286e-06</v>
+        <v>7.939926643355452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.262499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>216945.7533769123</v>
+        <v>240160.0343907172</v>
       </c>
     </row>
     <row r="3">
@@ -16550,28 +16550,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.8211693956173</v>
+        <v>172.8705604662835</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.150713026072</v>
+        <v>236.5291273407373</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.2394870811923</v>
+        <v>213.955119398121</v>
       </c>
       <c r="AD3" t="n">
-        <v>144821.1693956173</v>
+        <v>172870.5604662835</v>
       </c>
       <c r="AE3" t="n">
-        <v>198150.713026072</v>
+        <v>236529.1273407373</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.695847457464629e-06</v>
+        <v>8.651782135518355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.830555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>179239.4870811923</v>
+        <v>213955.119398121</v>
       </c>
     </row>
     <row r="4">
@@ -16656,28 +16656,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.0881600091033</v>
+        <v>173.1375510797695</v>
       </c>
       <c r="AB4" t="n">
-        <v>198.5160213622379</v>
+        <v>236.8944356769032</v>
       </c>
       <c r="AC4" t="n">
-        <v>179.5699309024681</v>
+        <v>214.2855632193967</v>
       </c>
       <c r="AD4" t="n">
-        <v>145088.1600091033</v>
+        <v>173137.5510797695</v>
       </c>
       <c r="AE4" t="n">
-        <v>198516.0213622379</v>
+        <v>236894.4356769032</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.706788540356899e-06</v>
+        <v>8.671940342608342e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.819444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>179569.9309024681</v>
+        <v>214285.5632193967</v>
       </c>
     </row>
   </sheetData>
@@ -16953,28 +16953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.4003075851232</v>
+        <v>288.4563489618099</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.922944771865</v>
+        <v>394.6787024455238</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.0495970603191</v>
+        <v>357.0111210191602</v>
       </c>
       <c r="AD2" t="n">
-        <v>259400.3075851233</v>
+        <v>288456.3489618098</v>
       </c>
       <c r="AE2" t="n">
-        <v>354922.944771865</v>
+        <v>394678.7024455238</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.523202402546935e-06</v>
+        <v>6.293943974896645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.198611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>321049.5970603191</v>
+        <v>357011.1210191602</v>
       </c>
     </row>
     <row r="3">
@@ -17059,28 +17059,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.5912993255551</v>
+        <v>178.6472511936902</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.6774152394898</v>
+        <v>244.4330504435797</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.1432899956476</v>
+        <v>221.1047031732563</v>
       </c>
       <c r="AD3" t="n">
-        <v>149591.2993255551</v>
+        <v>178647.2511936902</v>
       </c>
       <c r="AE3" t="n">
-        <v>204677.4152394898</v>
+        <v>244433.0504435797</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.725484020302141e-06</v>
+        <v>8.44173234457109e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.620833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>185143.2899956476</v>
+        <v>221104.7031732563</v>
       </c>
     </row>
     <row r="4">
@@ -17165,28 +17165,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.6299853770618</v>
+        <v>169.1428547134379</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.7303472018694</v>
+        <v>231.4287158749253</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.1911702058282</v>
+        <v>209.3414840441319</v>
       </c>
       <c r="AD4" t="n">
-        <v>149629.9853770618</v>
+        <v>169142.8547134379</v>
       </c>
       <c r="AE4" t="n">
-        <v>204730.3472018694</v>
+        <v>231428.7158749253</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.738219055092016e-06</v>
+        <v>8.46448255484226e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.608333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>185191.1702058282</v>
+        <v>209341.4840441319</v>
       </c>
     </row>
   </sheetData>
